--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3932441.832808475</v>
+        <v>4035998.848600423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7162568.327140979</v>
+        <v>7144986.043937655</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>201.3825366600136</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>228.593001936867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>261.9657095888484</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.21818400116979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>219.8168518934653</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>257.7716304668729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9361527985598763</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>58.34805518811571</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.76470074482967</v>
+        <v>384.3305661660053</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.2205257453331</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>56.97285057263382</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.52129633183035</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187846</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>220.204325947852</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.41782514684174</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>34.44047701880762</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>203.5751040450764</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002295</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261734</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>48.15331591778292</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457615</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541848</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>59.3100580403004</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2358.922624703172</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2358.922624703172</v>
       </c>
       <c r="W2" t="n">
-        <v>2763.640912107148</v>
+        <v>2006.153969433058</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1632.688211171978</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.6654861422326</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251691</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.3139509724723</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495404</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495404</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>741.9599508971596</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266613</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1644.832597785413</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1355.729730911056</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.045242705169</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>811.6280726682088</v>
+        <v>1033.705864889503</v>
       </c>
       <c r="X7" t="n">
-        <v>583.6385217701915</v>
+        <v>805.7163139914852</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8459426266613</v>
+        <v>805.7163139914852</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.0144869816389</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>201.078304053732</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1869.746214176741</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1678.060330003568</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1678.060330003568</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1388.957463129211</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.272974923324</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.0144869816389</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969314</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400703</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277345</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453414</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453414</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>215.8238677453414</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273898</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239595</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.834428639718</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820876</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7297566303649</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280593</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1465.957241786169</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1176.540071749208</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>948.5505208511905</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511905</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5834,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2968.622055159635</v>
+        <v>991.7436897307826</v>
       </c>
       <c r="C22" t="n">
-        <v>2799.685872231728</v>
+        <v>822.8075068028758</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231728</v>
+        <v>672.69086739054</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649335</v>
+        <v>524.7777738081469</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>377.8878263102365</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>210.6917270251164</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228102</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>3951.890584782709</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4503.800315021996</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
         <v>1344.266747951538</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3227.225672628156</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>3058.289489700249</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2908.172850287914</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2760.25975670552</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2613.36980920761</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2446.17370992249</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>4401.757925742791</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>4147.073437536904</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>3857.656267499943</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>3629.666716601926</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>3408.874137458396</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,10 +6542,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
         <v>776.1751066403293</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213311</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796381</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175644</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.75711663939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.90908011978</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176793</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719451</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912511</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660665</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337792</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063897</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654574</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612652</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229213</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.92099021381</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519665</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081895</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>598.2542540370698</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>451.3643065391594</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>284.1682072540394</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>142.4563760962374</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615996</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954152</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7436,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.83890577277</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>3658.217393399322</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>3658.217393399322</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>4210.127123638609</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>4633.750273133677</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2387.053934044603</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2204.199099699508</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>162.007309792134</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7734165143935</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>31.93331737597597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.4141550350955</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>105.8542358274162</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.00954930701835</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>33.11252040078261</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.065188669821282</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>624320.542908385</v>
+        <v>632639.2414098842</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>624320.542908385</v>
+        <v>632639.2414098842</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>624320.542908385</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642834</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642851</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.2351281079</v>
       </c>
-      <c r="C4" t="n">
-        <v>88524.23512810789</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88524.23512810786</v>
-      </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756686</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756697</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756666</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17328.05961985005</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17328.05961985005</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985006</v>
-      </c>
       <c r="O4" t="n">
-        <v>17328.05961985006</v>
+        <v>9337.200356756641</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756615</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704161.1515528107</v>
+        <v>-523374.0598435835</v>
       </c>
       <c r="C6" t="n">
-        <v>624583.594174782</v>
+        <v>591377.7237323363</v>
       </c>
       <c r="D6" t="n">
-        <v>624583.594174782</v>
+        <v>431956.453734444</v>
       </c>
       <c r="E6" t="n">
-        <v>371274.4077019878</v>
+        <v>371274.4077019868</v>
       </c>
       <c r="F6" t="n">
-        <v>696686.8695093425</v>
+        <v>696686.8695093427</v>
       </c>
       <c r="G6" t="n">
         <v>696686.8695093425</v>
       </c>
       <c r="H6" t="n">
+        <v>696686.8695093421</v>
+      </c>
+      <c r="I6" t="n">
+        <v>696686.8695093426</v>
+      </c>
+      <c r="J6" t="n">
+        <v>529081.6916993601</v>
+      </c>
+      <c r="K6" t="n">
         <v>696686.8695093424</v>
       </c>
-      <c r="I6" t="n">
-        <v>696686.8695093427</v>
-      </c>
-      <c r="J6" t="n">
-        <v>479155.6671120648</v>
-      </c>
-      <c r="K6" t="n">
-        <v>681121.8763968877</v>
-      </c>
       <c r="L6" t="n">
-        <v>700549.594390518</v>
+        <v>648392.899501152</v>
       </c>
       <c r="M6" t="n">
-        <v>615494.566455008</v>
+        <v>611631.8415738306</v>
       </c>
       <c r="N6" t="n">
-        <v>700549.5943905183</v>
+        <v>696686.8695093424</v>
       </c>
       <c r="O6" t="n">
-        <v>700549.5943905192</v>
+        <v>696686.8695093424</v>
       </c>
       <c r="P6" t="n">
-        <v>696686.8695093427</v>
+        <v>696686.8695093426</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>49.66271346844846</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>120.6479667805461</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.55728874774263</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.366469350925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>145.4560398775423</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>149.1044152748385</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>218.6127964776093</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>228.1749431484753</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>306.4732379112239</v>
+        <v>1.907372490048317</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.39494727287928</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>31.95930209741351</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727265</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312112</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>229.6463482471746</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>388.5140139297707</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33025,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>355.4083096598231</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33740,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>553.2044093850079</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>373.0365088578703</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507082</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867668</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>91.80490927281561</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853263</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>213.2742757378048</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4035998.848600423</v>
+        <v>4031903.207095659</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>52.55700524943941</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>201.3825366600136</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>114.9245893326095</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.9657095888484</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>219.8168518934653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>43.09721280974534</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>24.55276019063679</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>58.34805518811571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>67.37512149318685</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>384.3305661660053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>56.97285057263382</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417098</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.5665975534139</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992599</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>34.44047701880762</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>112.0357928422986</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.5751040450764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>77.73359659137228</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>48.15331591778292</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484949</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.974274198339</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457615</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>104.8913819999782</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>59.3100580403004</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1632.688211171978</v>
+        <v>904.8820361188232</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>535.9195191784115</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>177.653820571661</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>177.653820571661</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>170.7083198224576</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,7 +4336,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2358.922624703172</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2358.922624703172</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2006.153969433058</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1632.688211171978</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.688211171978</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.8408313751036</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8408313751036</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1520.360676304184</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="W4" t="n">
-        <v>305.8408313751036</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8408313751036</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.8408313751036</v>
+        <v>848.6000654573724</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.155307492517</v>
+        <v>1585.174086820816</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1216.211569880405</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>857.9458712736541</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>472.1576186754099</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>465.2121179262064</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556638</v>
+        <v>1585.174086820816</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193029</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507746</v>
+        <v>932.4978103100991</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009995</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.15405360694</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.0678491612455</v>
+        <v>689.9034178578793</v>
       </c>
       <c r="C7" t="n">
-        <v>455.1316662333386</v>
+        <v>520.9672349299724</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210029</v>
+        <v>370.8505955176366</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>222.9375019352435</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733316</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733316</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733316</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1033.705864889503</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>805.7163139914852</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y7" t="n">
-        <v>805.7163139914852</v>
+        <v>871.551882688119</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>187.5967395832604</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>176.564693468661</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379707</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1869.746214176741</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1678.060330003568</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1678.060330003568</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1388.957463129211</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.272974923324</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>844.8558048863637</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>616.8662539883463</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.0736748448162</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>229.7425191625314</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5232,19 +5232,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307826</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028758</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>672.69086739054</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>524.7777738081469</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>377.8878263102365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>210.6917270251164</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704552</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561022</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473698</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194629</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>746.1673476194629</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>598.2542540370698</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>451.3643065391594</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>284.1682072540394</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4563760962374</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7438,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7493,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2319.799627685893</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>199.7675539570408</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,7 +7730,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2387.053934044603</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2204.199099699508</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1984.597634722449</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1984.597634722449</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.913146516562</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1440.495976479601</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1212.506425581584</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>162.007309792134</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>255.8421700460954</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019057</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>111.4161395899842</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>33.38525518063261</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.00954930701835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>70.88187642684008</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>33.11252040078261</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.5487903941877</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>35.40333084624568</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.065188669821282</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613899.165277677</v>
+        <v>613899.1652776771</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="9">
@@ -26316,46 +26316,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403384</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.014195044670487e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.454111184259467e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756712</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26444,22 +26444,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756533</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756533</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756493</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756641</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26496,16 +26496,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523374.0598435835</v>
+        <v>-523374.0598435833</v>
       </c>
       <c r="C6" t="n">
         <v>591377.7237323363</v>
       </c>
       <c r="D6" t="n">
-        <v>431956.453734444</v>
+        <v>431956.4537344435</v>
       </c>
       <c r="E6" t="n">
-        <v>371274.4077019868</v>
+        <v>370927.0284476305</v>
       </c>
       <c r="F6" t="n">
-        <v>696686.8695093427</v>
+        <v>696339.4902549855</v>
       </c>
       <c r="G6" t="n">
-        <v>696686.8695093425</v>
+        <v>696339.4902549851</v>
       </c>
       <c r="H6" t="n">
-        <v>696686.8695093421</v>
+        <v>696339.4902549859</v>
       </c>
       <c r="I6" t="n">
-        <v>696686.8695093426</v>
+        <v>696339.4902549854</v>
       </c>
       <c r="J6" t="n">
-        <v>529081.6916993601</v>
+        <v>528734.3124450026</v>
       </c>
       <c r="K6" t="n">
-        <v>696686.8695093424</v>
+        <v>696339.4902549856</v>
       </c>
       <c r="L6" t="n">
-        <v>648392.899501152</v>
+        <v>648045.5202467944</v>
       </c>
       <c r="M6" t="n">
-        <v>611631.8415738306</v>
+        <v>611284.4623194737</v>
       </c>
       <c r="N6" t="n">
-        <v>696686.8695093424</v>
+        <v>696339.4902549858</v>
       </c>
       <c r="O6" t="n">
-        <v>696686.8695093424</v>
+        <v>696339.4902549854</v>
       </c>
       <c r="P6" t="n">
-        <v>696686.8695093426</v>
+        <v>696339.4902549854</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>358.9906975235146</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>49.66271346844846</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>79.737871029128</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>24.55728874774263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.4560398775423</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>368.4504899632087</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>80.24383501326382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>228.1749431484753</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>227.2326428941336</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.907372490048317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>31.95930209741351</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.639251493166927e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-4.074115995166869e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31393,10 +31393,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>388.5140139297707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>502.2268148619681</v>
+        <v>164.9290651940682</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378501</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820405</v>
-      </c>
       <c r="N3" t="n">
-        <v>553.2044093850079</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578703</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839459</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>245.9177694853263</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,16 +36445,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>359.6305704175236</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4031903.207095659</v>
+        <v>4033663.737398445</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>52.55700524943941</v>
+        <v>52.55700524943989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>114.9245893326095</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>141.0108249680843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>43.09721280974534</v>
+        <v>43.09721280974809</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.55276019063679</v>
+        <v>24.55276019063742</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>67.37512149318685</v>
+        <v>67.37512149318597</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.67037196991711</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417098</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>105.9893107373036</v>
       </c>
       <c r="U13" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
-        <v>112.0357928422986</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.16086499484949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.974274198339</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>904.8820361188232</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>535.9195191784115</v>
+        <v>535.919519178412</v>
       </c>
       <c r="D2" t="n">
-        <v>177.653820571661</v>
+        <v>177.6538205716615</v>
       </c>
       <c r="E2" t="n">
-        <v>177.653820571661</v>
+        <v>177.6538205716615</v>
       </c>
       <c r="F2" t="n">
-        <v>170.7083198224576</v>
+        <v>170.708319822458</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4488,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,7 +4515,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1520.360676304184</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
         <v>1297.38219549892</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.174086820816</v>
+        <v>1585.174086820819</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.211569880405</v>
+        <v>1216.211569880407</v>
       </c>
       <c r="D5" t="n">
-        <v>857.9458712736541</v>
+        <v>857.9458712736568</v>
       </c>
       <c r="E5" t="n">
-        <v>472.1576186754099</v>
+        <v>472.1576186754126</v>
       </c>
       <c r="F5" t="n">
-        <v>465.2121179262064</v>
+        <v>465.2121179262091</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532448</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796628</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796628</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796628</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796628</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820816</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,22 +4643,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310611</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100991</v>
+        <v>870.3292415458914</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>1233.591260505111</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9034178578793</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9672349299724</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8505955176366</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E7" t="n">
-        <v>222.9375019352435</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F7" t="n">
-        <v>76.04755443733316</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G7" t="n">
-        <v>76.04755443733316</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="H7" t="n">
-        <v>76.04755443733316</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.551882688119</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796261</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392144</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324639</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5422403324639</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5967395832604</v>
+        <v>187.5967395832595</v>
       </c>
       <c r="G8" t="n">
-        <v>176.564693468661</v>
+        <v>176.5646934686601</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4956,10 +4956,10 @@
         <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,7 +5229,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U13" t="n">
         <v>1983.7822433412</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5834,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5986,25 +5986,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753335</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>430.7826650753335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6475,40 +6475,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,7 +7493,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7505,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,7 +7730,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
@@ -7785,16 +7785,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,34 +7806,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460954</v>
+        <v>255.8421700460945</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621884</v>
+        <v>280.1079373569275</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019057</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.4161395899847</v>
       </c>
       <c r="U13" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
-        <v>33.38525518063261</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5487903941877</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823017</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>821041.7698642832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
@@ -26352,10 +26352,10 @@
         <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403384</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.454111184259467e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.9700081906</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756712</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756632</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756506</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756533</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756533</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756493</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26496,16 +26496,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523374.0598435833</v>
+        <v>-523374.0598435837</v>
       </c>
       <c r="C6" t="n">
-        <v>591377.7237323363</v>
+        <v>591377.7237323362</v>
       </c>
       <c r="D6" t="n">
-        <v>431956.4537344435</v>
+        <v>431956.4537344442</v>
       </c>
       <c r="E6" t="n">
-        <v>370927.0284476305</v>
+        <v>371239.6697765515</v>
       </c>
       <c r="F6" t="n">
-        <v>696339.4902549855</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="G6" t="n">
-        <v>696339.4902549851</v>
+        <v>696652.1315839071</v>
       </c>
       <c r="H6" t="n">
-        <v>696339.4902549859</v>
+        <v>696652.1315839071</v>
       </c>
       <c r="I6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="J6" t="n">
-        <v>528734.3124450026</v>
+        <v>529046.9537739244</v>
       </c>
       <c r="K6" t="n">
-        <v>696339.4902549856</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="L6" t="n">
-        <v>648045.5202467944</v>
+        <v>648358.1615757163</v>
       </c>
       <c r="M6" t="n">
-        <v>611284.4623194737</v>
+        <v>611597.1036483949</v>
       </c>
       <c r="N6" t="n">
-        <v>696339.4902549858</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="O6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839071</v>
       </c>
       <c r="P6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839068</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>358.9906975235146</v>
+        <v>358.9906975235141</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>79.737871029128</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>79.7378710291276</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>368.4504899632087</v>
+        <v>368.4504899632059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>80.24383501326382</v>
+        <v>80.24383501326315</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.2326428941336</v>
+        <v>227.2326428941345</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440367</v>
+        <v>73.08464294440365</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.639251493166927e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.074115995166869e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940682</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422184</v>
+        <v>591.2668520422176</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000384</v>
+        <v>577.7882979947777</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839459</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
